--- a/Data/proxy_unav.xlsx
+++ b/Data/proxy_unav.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\_Dissertation\Julie's results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{881ADEA7-EF0E-4F44-AAC5-2DF06A30D573}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BF24C8-1DF7-4CDC-B108-DFF60FDEC4A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13996"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="proxy_unav" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9020" uniqueCount="3757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9016" uniqueCount="3757">
   <si>
     <t>P1 [MW]</t>
   </si>
@@ -11296,7 +11296,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -12130,10 +12130,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1919"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A616" workbookViewId="0">
+      <selection activeCell="C634" sqref="C634:D634"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -15466,7 +15468,7 @@
         <v>14</v>
       </c>
       <c r="I115" t="s">
-        <v>219</v>
+        <v>327</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.45">
@@ -19714,7 +19716,7 @@
         <v>661</v>
       </c>
       <c r="D262" t="s">
-        <v>219</v>
+        <v>324</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -20903,7 +20905,7 @@
         <v>760</v>
       </c>
       <c r="D303" t="s">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="E303">
         <v>0</v>
@@ -22034,7 +22036,7 @@
         <v>850</v>
       </c>
       <c r="D342" t="s">
-        <v>219</v>
+        <v>853</v>
       </c>
       <c r="E342">
         <v>0</v>
@@ -23136,7 +23138,7 @@
         <v>938</v>
       </c>
       <c r="D380" t="s">
-        <v>219</v>
+        <v>935</v>
       </c>
       <c r="E380">
         <v>0</v>
@@ -24992,7 +24994,7 @@
         <v>1093</v>
       </c>
       <c r="D444" t="s">
-        <v>219</v>
+        <v>1090</v>
       </c>
       <c r="E444">
         <v>0</v>
@@ -30440,11 +30442,11 @@
       <c r="B632" t="s">
         <v>70</v>
       </c>
-      <c r="C632" t="s">
-        <v>219</v>
-      </c>
-      <c r="D632" t="s">
-        <v>219</v>
+      <c r="C632">
+        <v>35</v>
+      </c>
+      <c r="D632">
+        <v>35</v>
       </c>
       <c r="E632">
         <v>0</v>
@@ -30498,11 +30500,11 @@
       <c r="B634" t="s">
         <v>70</v>
       </c>
-      <c r="C634" t="s">
-        <v>219</v>
-      </c>
-      <c r="D634" t="s">
-        <v>219</v>
+      <c r="C634">
+        <v>35</v>
+      </c>
+      <c r="D634">
+        <v>35</v>
       </c>
       <c r="E634">
         <v>0</v>
@@ -67787,5 +67789,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>